--- a/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>903,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>124,07%</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>190,25%</t>
+          <t>569,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>115,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>221,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>362,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,96</t>
+          <t>1,74; 11,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,9</t>
+          <t>0,14; 8,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,16</t>
+          <t>2,07; 8,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 17,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>125,04; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 442,31</t>
+          <t>6,05; 20,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 704,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 147,62</t>
+          <t>-11,15; 402,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39,05; 750,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>75,37; 1530,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>261,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>215,52%</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>226,73%</t>
+          <t>137,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>110,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>291,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>411,77%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,48</t>
+          <t>-0,29; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,22</t>
+          <t>-0,25; 2,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,88</t>
+          <t>1,1; 6,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 17,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,06; 1212,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 637,55</t>
+          <t>3,09; 9,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 802,75</t>
+          <t>-31,18; 805,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 161,72</t>
+          <t>-29,72; 506,84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56,73; 1108,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>77,88; 1536,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>325,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>270,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>93,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>598,63%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,09</t>
+          <t>0,45; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,3</t>
+          <t>-0,51; 2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,16</t>
+          <t>-0,69; 1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 41,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 1636,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,2; 309,91</t>
+          <t>1,22; 5,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,98; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,1; 1007,46</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-81,32; 559,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,28; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>441,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,02%</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>194,27%</t>
+          <t>589,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>164,21%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>430,21%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,5</t>
+          <t>3,43; 8,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,12</t>
+          <t>-0,37; 5,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>194,15; 1005,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 266,4</t>
+          <t>3,39; 10,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,49; 441,44</t>
+          <t>159,35; 1756,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 103,79</t>
+          <t>-45,5; 1029,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92,62; 1544,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>377,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>128,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>227,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>441,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 5,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 3,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 4,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 8,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>166,91; 808,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 290,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87,49; 486,21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>230,9; 871,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,89</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>569,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>115,7%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>221,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>362,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.524013652891447</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.55789404530349</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.50912881878923</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>13.1226737202726</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>5.18522569802054</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.189208845622261</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.247125557632853</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>3.684451598143751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 11,11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 8,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 8,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 20,22</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 402,32</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>39,05; 750,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>75,37; 1530,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.405072507124009</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.158656005984891</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.174551257607962</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>6.171901913065912</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.07940642989877668</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.4032093653947935</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.7029397632422572</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.23692742593197</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.04330868238706</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.532393401431339</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>20.67622866931608</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.202821310708344</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>7.737153168584928</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>14.39549804516686</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,14</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>137,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>110,45%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>291,41%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>411,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 3,68</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 2,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 6,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 9,56</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,18; 805,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-29,72; 506,84</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>56,73; 1108,69</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>77,88; 1536,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.72208646160003</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.162385412928526</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.629572316590043</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>6.317580360036003</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.383037884233634</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.172020510797632</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.590212128145801</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>4.445825171221956</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>270,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93,38%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,25%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>598,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.2812251298717903</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1098257559113161</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.039987316641734</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>3.324591470910816</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3141070518199211</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2390166453103434</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3982537007308388</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.8963575293761848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 5,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 2,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 5,24</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,1; 1007,46</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-81,32; 559,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>11,28; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.685601635912092</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.650732894950194</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.279563340094859</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>10.04756994456126</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.924595625050434</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.550955710534129</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>9.327904432708381</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>16.65913557905758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +879,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>589,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>164,21%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>430,21%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.656382461075412</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8059867723624637</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2048488432951965</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>2.914182676388827</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.9768528287732</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.095454530227865</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3308471945747163</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>6.05662272007397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 8,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 5,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 10,87</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>159,35; 1756,95</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-45,5; 1029,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>92,62; 1544,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.5281626531764583</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3834135549224265</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.637309762861614</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>1.227064720680784</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.151015870607791</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5896935603429386</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7941190413605845</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>0.1344165119607762</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.330250266857922</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.328392213173462</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.182489366106237</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.218529494294658</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>10.27035887176126</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.674872230114614</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>377,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>128,49%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>227,47%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>441,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 5,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 3,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 4,5</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,06; 8,91</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>166,91; 808,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>30,23; 290,88</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>87,49; 486,21</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>230,9; 871,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.767034349834804</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.895944284264984</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.633503610227744</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>6.991807927788109</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.545031926419475</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.280719654107504</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.205444505803831</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>4.669685143058801</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.36291527192916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.6654238539363468</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.508216194840494</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>4.886529086572705</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.6781048775110453</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2993233528392379</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.8033346492735239</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>1.92643850115885</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.279241855670687</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.118770899834571</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.344043227675125</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>9.586815361124003</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>7.356272275736733</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.180559500527343</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.918997134656493</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>10.31201660754703</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
